--- a/Calibrator/samples.xlsx
+++ b/Calibrator/samples.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Sample number</t>
   </si>
@@ -49,8 +49,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,12 +92,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +617,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <f t="shared" ref="A22:A41" si="0">A21+1</f>
+        <f t="shared" ref="A22:A74" si="0">A21+1</f>
         <v>21</v>
       </c>
       <c r="I22">
@@ -845,58 +856,1207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:11">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <f t="shared" si="0"/>
+    <row r="34" spans="1:11" ht="33" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I35">
+        <f>1.5-0.1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I37">
+        <f>1.6-0.1</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I39">
+        <f>1.7-0.1</f>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+      <c r="B41">
+        <v>0.9</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I41">
+        <f>0.9-0.1</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1.5</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I46">
+        <v>1.3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1.25</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I47">
+        <v>1.4</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>70</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I48">
+        <v>1.6</v>
+      </c>
+      <c r="J48">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>70</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I49">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1.7</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1.5</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>70</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1.25</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>70</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I54">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1.5</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1.5</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>70</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1.5</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>70</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1.5</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>70</v>
+      </c>
+      <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C60" s="4">
+        <v>30</v>
+      </c>
+      <c r="D60" s="4">
+        <v>70</v>
+      </c>
+      <c r="E60" s="4">
+        <v>5</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="45">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>30</v>
+      </c>
+      <c r="D62" s="4">
+        <v>70</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>30</v>
+      </c>
+      <c r="D63" s="3">
+        <v>70</v>
+      </c>
+      <c r="E63" s="3">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="4">
+        <v>5</v>
+      </c>
+      <c r="C64" s="4">
+        <v>30</v>
+      </c>
+      <c r="D64" s="4">
+        <v>70</v>
+      </c>
+      <c r="E64" s="4">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>30</v>
+      </c>
+      <c r="D65" s="4">
+        <v>70</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="4">
+        <v>30</v>
+      </c>
+      <c r="D66" s="4">
+        <v>70</v>
+      </c>
+      <c r="E66" s="4">
+        <v>8</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B67" s="4">
+        <v>5</v>
+      </c>
+      <c r="C67" s="4">
+        <v>40</v>
+      </c>
+      <c r="D67" s="4">
+        <v>70</v>
+      </c>
+      <c r="E67" s="4">
+        <v>4</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="C68" s="4">
+        <v>40</v>
+      </c>
+      <c r="D68" s="4">
+        <v>70</v>
+      </c>
+      <c r="E68" s="4">
+        <v>4</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C69" s="4">
+        <v>40</v>
+      </c>
+      <c r="D69" s="4">
+        <v>70</v>
+      </c>
+      <c r="E69" s="4">
+        <v>4</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>40</v>
+      </c>
+      <c r="D70" s="4">
+        <v>70</v>
+      </c>
+      <c r="E70" s="4">
+        <v>6</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="4">
+        <v>40</v>
+      </c>
+      <c r="D71" s="4">
+        <v>70</v>
+      </c>
+      <c r="E71" s="4">
+        <v>6</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="4">
+        <v>5</v>
+      </c>
+      <c r="C72" s="4">
+        <v>50</v>
+      </c>
+      <c r="D72" s="4">
+        <v>70</v>
+      </c>
+      <c r="E72" s="4">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B73" s="4">
+        <v>5</v>
+      </c>
+      <c r="C73" s="4">
+        <v>50</v>
+      </c>
+      <c r="D73" s="4">
+        <v>70</v>
+      </c>
+      <c r="E73" s="4">
+        <v>4</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4">
+        <v>50</v>
+      </c>
+      <c r="D74" s="4">
+        <v>70</v>
+      </c>
+      <c r="E74" s="4">
+        <v>4</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L74">
+        <v>0.4</v>
+      </c>
+      <c r="M74">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -907,12 +2067,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <f>1+A2</f>
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.01</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <f t="shared" ref="A5:A24" si="0">1+A4</f>
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.01</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>1.8</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.01</v>
+      </c>
+      <c r="I12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.01</v>
+      </c>
+      <c r="I13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
